--- a/3.3.3/3.3.3.xlsx
+++ b/3.3.3/3.3.3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>V</t>
   </si>
@@ -29,15 +29,28 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,30 +401,30 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
         <f>970</f>
         <v>970</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2">
         <f>800</f>
         <v>800</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -608,59 +622,59 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <f>SUM(B4:F4)/5</f>
         <v>1.1779588365996598E-19</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <f>SUM(G4:K4)/5</f>
         <v>1.227785290699428E-19</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
         <f>SUM(L4:P4)/5</f>
         <v>1.2847930160844065E-19</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <f>980</f>
         <v>980</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
         <f>860</f>
         <v>860</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -858,43 +872,43 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <f>SUM(B9:F9)/5</f>
         <v>1.2640059371366423E-19</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <f>SUM(G9:K9)/5</f>
         <v>2.4635090100016167E-19</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
         <f>SUM(L9:P9)/5</f>
         <v>3.5828369864104392E-19</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -972,14 +986,387 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f>SUM(B14:F14)/5</f>
         <v>3.5097862721150336E-19</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f>B4*SQRT((10/1000)^2+(0.2^2*B2^2)/(B3^2*(B2+B3)^2)+(0.2^2)/(4*B2^2)*((3*B3+B2)/(B2+B3))^2)</f>
+        <v>1.756378024921403E-21</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:F18" si="2">C4*SQRT((10/1000)^2+(0.2^2*C2^2)/(C3^2*(C2+C3)^2)+(0.2^2)/(4*C2^2)*((3*C3+C2)/(C2+C3))^2)</f>
+        <v>1.7200622442722475E-21</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1.4853225097998785E-21</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>1.7683586929671946E-21</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.6843387701022899E-21</v>
+      </c>
+      <c r="G18">
+        <f>G4*SQRT((10/970)^2+(0.2^2*G2^2)/(G3^2*(G2+G3)^2)+(0.2^2)/(4*G2^2)*((3*G3+G2)/(G2+G3))^2)</f>
+        <v>1.8234768353658881E-21</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:K18" si="3">H4*SQRT((10/970)^2+(0.2^2*H2^2)/(H3^2*(H2+H3)^2)+(0.2^2)/(4*H2^2)*((3*H3+H2)/(H2+H3))^2)</f>
+        <v>1.8023672759206056E-21</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1.8454168021881138E-21</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.8560079821276378E-21</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>1.970870970360165E-21</v>
+      </c>
+      <c r="L18">
+        <f>L4*SQRT((10/800)^2+(0.2^2*L2^2)/(L3^2*(L2+L3)^2)+(0.2^2)/(4*L2^2)*((3*L3+L2)/(L2+L3))^2)</f>
+        <v>2.079598883378928E-21</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:P18" si="4">M4*SQRT((10/800)^2+(0.2^2*M2^2)/(M3^2*(M2+M3)^2)+(0.2^2)/(4*M2^2)*((3*M3+M2)/(M2+M3))^2)</f>
+        <v>2.3359255673127114E-21</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>2.3344162612744578E-21</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>2.2443157876248788E-21</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>2.2806056161808354E-21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>B18*10^(19)</f>
+        <v>1.7563780249214029E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:P19" si="5">C18*10^(19)</f>
+        <v>1.7200622442722475E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4853225097998784E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7683586929671945E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6843387701022901E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8234768353658882E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8023672759206057E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8454168021881139E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8560079821276377E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9708709703601651E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0795988833789279E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3359255673127115E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3344162612744579E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2443157876248787E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2806056161808353E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>B9*SQRT((10/980)^2+(0.2^2*B7^2)/(B8^2*(B7+B8)^2)+(0.2^2)/(4*B7^2)*((3*B8+B7)/(B7+B8))^2)</f>
+        <v>2.1750815679257278E-21</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:F23" si="6">C9*SQRT((10/980)^2+(0.2^2*C7^2)/(C8^2*(C7+C8)^2)+(0.2^2)/(4*C7^2)*((3*C8+C7)/(C7+C8))^2)</f>
+        <v>2.160759931437982E-21</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>2.320684473484381E-21</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>2.175495748222946E-21</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
+        <v>2.1858089611704073E-21</v>
+      </c>
+      <c r="G23">
+        <f>G9*SQRT((10/1000)^2+(0.2^2*G7^2)/(G8^2*(G7+G8)^2)+(0.2^2)/(4*G7^2)*((3*G8+G7)/(G7+G8))^2)</f>
+        <v>4.184030240214637E-21</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:K23" si="7">H9*SQRT((10/1000)^2+(0.2^2*H7^2)/(H8^2*(H7+H8)^2)+(0.2^2)/(4*H7^2)*((3*H8+H7)/(H7+H8))^2)</f>
+        <v>4.225998219859116E-21</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>4.2824960475054912E-21</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>4.5478283042247018E-21</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>4.0473367047500043E-21</v>
+      </c>
+      <c r="L23">
+        <f>L9*SQRT((10/860)^2+(0.2^2*L7^2)/(L8^2*(L7+L8)^2)+(0.2^2)/(4*L7^2)*((3*L8+L7)/(L7+L8))^2)</f>
+        <v>1.1662034661960011E-20</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:P23" si="8">M9*SQRT((10/860)^2+(0.2^2*M7^2)/(M8^2*(M7+M8)^2)+(0.2^2)/(4*M7^2)*((3*M8+M7)/(M7+M8))^2)</f>
+        <v>1.1615612073913589E-20</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>1.2215695978573521E-20</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
+        <v>1.1019115162512174E-20</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>1.1291404328200583E-20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f>B23*10^(19)</f>
+        <v>2.1750815679257279E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:P24" si="9">C23*10^(19)</f>
+        <v>2.1607599314379819E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="9"/>
+        <v>2.3206844734843812E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="9"/>
+        <v>2.175495748222946E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1858089611704073E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="9"/>
+        <v>4.1840302402146368E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2259982198591159E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2824960475054914E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="9"/>
+        <v>4.547828304224702E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0473367047500042E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11662034661960011</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11615612073913589</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.12215695978573521</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11019115162512173</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11291404328200584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B14*SQRT((10/1000)^2+(0.2^2*B12^2)/(B13^2*(B12+B13)^2)+(0.2^2)/(4*B12^2)*((3*B13+B12)/(B12+B13))^2)</f>
+        <v>8.6822773728142979E-21</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:F28" si="10">C14*SQRT((10/1000)^2+(0.2^2*C12^2)/(C13^2*(C12+C13)^2)+(0.2^2)/(4*C12^2)*((3*C13+C12)/(C12+C13))^2)</f>
+        <v>8.6822773728142979E-21</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="10"/>
+        <v>9.0813108603896948E-21</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="10"/>
+        <v>8.8219622203833495E-21</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="10"/>
+        <v>8.8562114870703645E-21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f>B28*10^(19)</f>
+        <v>8.6822773728142982E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:F29" si="11">C28*10^(19)</f>
+        <v>8.6822773728142982E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="11"/>
+        <v>9.081310860389695E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="11"/>
+        <v>8.8219622203833489E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="11"/>
+        <v>8.8562114870703645E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f>7.6</f>
+        <v>7.6</v>
+      </c>
+      <c r="C32">
+        <f>7.6</f>
+        <v>7.6</v>
+      </c>
+      <c r="D32">
+        <f>7.4</f>
+        <v>7.4</v>
+      </c>
+      <c r="E32">
+        <f>7.3</f>
+        <v>7.3</v>
+      </c>
+      <c r="F32">
+        <f>7.6</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <f>680</f>
+        <v>680</v>
+      </c>
+      <c r="C33">
+        <f>680</f>
+        <v>680</v>
+      </c>
+      <c r="D33">
+        <f>680</f>
+        <v>680</v>
+      </c>
+      <c r="E33">
+        <f>680</f>
+        <v>680</v>
+      </c>
+      <c r="F33">
+        <f>680</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>9*3.14*SQRT(2*(1.83*10^(-5))^3*(0.75*10^(-3))^3/9.8/898)*7.25*10^(-3)/B32^(1.5)/B33</f>
+        <v>3.4858860333178276E-19</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:F34" si="12">9*3.14*SQRT(2*(1.83*10^(-5))^3*(0.75*10^(-3))^3/9.8/898)*7.25*10^(-3)/C32^(1.5)/C33</f>
+        <v>3.4858860333178276E-19</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="12"/>
+        <v>3.6281563420655145E-19</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="12"/>
+        <v>3.702962232032638E-19</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="12"/>
+        <v>3.4858860333178276E-19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>(ABS(B34*10^19-3.56)+ABS(C34*10^19-3.56)+ABS(D34*10^19-3.56)+ABS(E34*10^19-3.56)+ABS(F34*10^19-3.56))/5</f>
+        <v>8.6692094828933988E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -999,6 +1386,7 @@
     <mergeCell ref="L10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
